--- a/Excel/EduCBAExcel2010/2-Data entry in excel.xlsx
+++ b/Excel/EduCBAExcel2010/2-Data entry in excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="8595" windowHeight="4680" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="8595" windowHeight="4680" tabRatio="1000" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Information" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="Number Formats" sheetId="3" r:id="rId3"/>
     <sheet name="Referencing" sheetId="4" r:id="rId4"/>
     <sheet name="PivotTable" sheetId="5" r:id="rId5"/>
+    <sheet name="Shortcuts" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>XYZ Company - List of Employess</t>
   </si>
@@ -165,6 +166,111 @@
   </si>
   <si>
     <t>Charts</t>
+  </si>
+  <si>
+    <t>Formatting Shortcuts</t>
+  </si>
+  <si>
+    <t>S. No</t>
+  </si>
+  <si>
+    <t>KeyStroke</t>
+  </si>
+  <si>
+    <t>Shortcut Function</t>
+  </si>
+  <si>
+    <t>[Ctrl]B</t>
+  </si>
+  <si>
+    <t>[Ctrl]I</t>
+  </si>
+  <si>
+    <t>[Ctrl]U</t>
+  </si>
+  <si>
+    <t>[Ctrl]1</t>
+  </si>
+  <si>
+    <t>[Ctrl][Shift]%</t>
+  </si>
+  <si>
+    <t>Bold the selection</t>
+  </si>
+  <si>
+    <t>Italicize the selection</t>
+  </si>
+  <si>
+    <t>Underline the selection</t>
+  </si>
+  <si>
+    <t>Open the Format Cells dialog box</t>
+  </si>
+  <si>
+    <t>Apply percentage format</t>
+  </si>
+  <si>
+    <t>Navigation Shortcut</t>
+  </si>
+  <si>
+    <t>[Ctrl][Page Down]</t>
+  </si>
+  <si>
+    <t>[Ctrl][Page Up]</t>
+  </si>
+  <si>
+    <t>Move to the previous worksheet ina workbook</t>
+  </si>
+  <si>
+    <t>Move toook the next worksheet in a workbook</t>
+  </si>
+  <si>
+    <t>Arrow keys</t>
+  </si>
+  <si>
+    <t>Move one cell up,down,left,or right</t>
+  </si>
+  <si>
+    <t>[Ctrl] and a arrow key</t>
+  </si>
+  <si>
+    <t>Move to the beginning of the data region</t>
+  </si>
+  <si>
+    <t>[Home]</t>
+  </si>
+  <si>
+    <t>Move to the beginning of the row</t>
+  </si>
+  <si>
+    <t>[Ctrl][Home]</t>
+  </si>
+  <si>
+    <t>[Ctrl][End]</t>
+  </si>
+  <si>
+    <t>Move to the End of the used position of a worksheet</t>
+  </si>
+  <si>
+    <t>Move to the beginning of the worksheet</t>
+  </si>
+  <si>
+    <t>[Enter]</t>
+  </si>
+  <si>
+    <t>Move down a cell in a selected range</t>
+  </si>
+  <si>
+    <t>[Shift][Enter]</t>
+  </si>
+  <si>
+    <t>Move up a cell in a selected range</t>
+  </si>
+  <si>
+    <t>[Shift][Tab]</t>
+  </si>
+  <si>
+    <t>Move one cell to the left in a selected range.</t>
   </si>
 </sst>
 </file>
@@ -482,14 +588,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,13 +606,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -528,42 +634,237 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -593,239 +894,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -960,11 +1028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43438080"/>
-        <c:axId val="43439616"/>
+        <c:axId val="166360576"/>
+        <c:axId val="166362112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43438080"/>
+        <c:axId val="166360576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +1041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43439616"/>
+        <c:crossAx val="166362112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -981,7 +1049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43439616"/>
+        <c:axId val="166362112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43438080"/>
+        <c:crossAx val="166360576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1123,12 +1191,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="43568128"/>
-        <c:axId val="44142592"/>
+        <c:axId val="166380672"/>
+        <c:axId val="166382208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="43568128"/>
+        <c:axId val="166380672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44142592"/>
+        <c:crossAx val="166382208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1145,7 +1213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44142592"/>
+        <c:axId val="166382208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1224,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43568128"/>
+        <c:crossAx val="166380672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,7 +1568,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1523,23 +1591,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:J22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:J22" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="B3:J22"/>
   <sortState ref="B4:J22">
     <sortCondition ref="C4:C22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="S.No" dataDxfId="20"/>
-    <tableColumn id="2" name="Name" dataDxfId="19"/>
-    <tableColumn id="3" name="DepartMent" dataDxfId="9"/>
-    <tableColumn id="4" name="Gender" dataDxfId="8"/>
-    <tableColumn id="5" name="Monthly Salary($)" dataDxfId="18"/>
-    <tableColumn id="6" name="Annual Salary" dataDxfId="17">
+    <tableColumn id="1" name="S.No" dataDxfId="10"/>
+    <tableColumn id="2" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" name="DepartMent" dataDxfId="8"/>
+    <tableColumn id="4" name="Gender" dataDxfId="7"/>
+    <tableColumn id="5" name="Monthly Salary($)" dataDxfId="6"/>
+    <tableColumn id="6" name="Annual Salary" dataDxfId="5">
       <calculatedColumnFormula>F4*12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Taxes" dataDxfId="10"/>
-    <tableColumn id="9" name="Take Home Salary" dataDxfId="11"/>
-    <tableColumn id="7" name="% of Annual Salary" dataDxfId="16">
+    <tableColumn id="10" name="Taxes" dataDxfId="4"/>
+    <tableColumn id="9" name="Take Home Salary" dataDxfId="3"/>
+    <tableColumn id="7" name="% of Annual Salary" dataDxfId="2">
       <calculatedColumnFormula>G4/G24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1836,8 +1904,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J22"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <pane xSplit="11370" ySplit="3300" topLeftCell="B1"/>
+      <selection activeCell="L4" sqref="L4"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,44 +1927,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1913,18 +1985,18 @@
         <v>8700</v>
       </c>
       <c r="G4" s="11">
-        <f>F4*12</f>
+        <f t="shared" ref="G4:G22" si="0">F4*12</f>
         <v>104400</v>
       </c>
-      <c r="H4" s="16">
-        <f>IF(G4&gt;50000,(G4-50000)*25%,0)</f>
+      <c r="H4" s="15">
+        <f t="shared" ref="H4:H9" si="1">IF(G4&gt;50000,(G4-50000)*25%,0)</f>
         <v>13600</v>
       </c>
-      <c r="I4" s="16">
-        <f>G4-H4</f>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4:I22" si="2">G4-H4</f>
         <v>90800</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="21">
         <f>G4/$G$24</f>
         <v>9.1386554621848734E-2</v>
       </c>
@@ -1946,19 +2018,19 @@
         <v>5600</v>
       </c>
       <c r="G5" s="11">
-        <f>F5*12</f>
+        <f t="shared" si="0"/>
         <v>67200</v>
       </c>
-      <c r="H5" s="16">
-        <f>IF(G5&gt;50000,(G5-50000)*25%,0)</f>
+      <c r="H5" s="15">
+        <f t="shared" si="1"/>
         <v>4300</v>
       </c>
-      <c r="I5" s="16">
-        <f>G5-H5</f>
+      <c r="I5" s="15">
+        <f t="shared" si="2"/>
         <v>62900</v>
       </c>
-      <c r="J5" s="23">
-        <f t="shared" ref="J5:J22" si="0">G5/$G$24</f>
+      <c r="J5" s="21">
+        <f t="shared" ref="J5:J22" si="3">G5/$G$24</f>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -1979,19 +2051,19 @@
         <v>6400</v>
       </c>
       <c r="G6" s="11">
-        <f>F6*12</f>
+        <f t="shared" si="0"/>
         <v>76800</v>
       </c>
-      <c r="H6" s="16">
-        <f>IF(G6&gt;50000,(G6-50000)*25%,0)</f>
+      <c r="H6" s="15">
+        <f t="shared" si="1"/>
         <v>6700</v>
       </c>
-      <c r="I6" s="16">
-        <f>G6-H6</f>
+      <c r="I6" s="15">
+        <f t="shared" si="2"/>
         <v>70100</v>
       </c>
-      <c r="J6" s="23">
-        <f t="shared" si="0"/>
+      <c r="J6" s="21">
+        <f t="shared" si="3"/>
         <v>6.7226890756302518E-2</v>
       </c>
     </row>
@@ -2012,19 +2084,19 @@
         <v>7300</v>
       </c>
       <c r="G7" s="11">
-        <f>F7*12</f>
+        <f t="shared" si="0"/>
         <v>87600</v>
       </c>
-      <c r="H7" s="16">
-        <f>IF(G7&gt;50000,(G7-50000)*25%,0)</f>
+      <c r="H7" s="15">
+        <f t="shared" si="1"/>
         <v>9400</v>
       </c>
-      <c r="I7" s="16">
-        <f>G7-H7</f>
+      <c r="I7" s="15">
+        <f t="shared" si="2"/>
         <v>78200</v>
       </c>
-      <c r="J7" s="23">
-        <f t="shared" si="0"/>
+      <c r="J7" s="21">
+        <f t="shared" si="3"/>
         <v>7.6680672268907568E-2</v>
       </c>
     </row>
@@ -2045,19 +2117,19 @@
         <v>7100</v>
       </c>
       <c r="G8" s="11">
-        <f>F8*12</f>
+        <f t="shared" si="0"/>
         <v>85200</v>
       </c>
-      <c r="H8" s="16">
-        <f>IF(G8&gt;50000,(G8-50000)*25%,0)</f>
+      <c r="H8" s="15">
+        <f t="shared" si="1"/>
         <v>8800</v>
       </c>
-      <c r="I8" s="16">
-        <f>G8-H8</f>
+      <c r="I8" s="15">
+        <f t="shared" si="2"/>
         <v>76400</v>
       </c>
-      <c r="J8" s="23">
-        <f t="shared" si="0"/>
+      <c r="J8" s="21">
+        <f t="shared" si="3"/>
         <v>7.4579831932773108E-2</v>
       </c>
     </row>
@@ -2078,19 +2150,19 @@
         <v>3700</v>
       </c>
       <c r="G9" s="11">
-        <f>F9*12</f>
+        <f t="shared" si="0"/>
         <v>44400</v>
       </c>
-      <c r="H9" s="16">
-        <f>IF(G9&gt;50000,(G9-50000)*25%,0)</f>
+      <c r="H9" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="16">
-        <f>G9-H9</f>
+      <c r="I9" s="15">
+        <f t="shared" si="2"/>
         <v>44400</v>
       </c>
-      <c r="J9" s="23">
-        <f t="shared" si="0"/>
+      <c r="J9" s="21">
+        <f t="shared" si="3"/>
         <v>3.8865546218487396E-2</v>
       </c>
     </row>
@@ -2111,19 +2183,19 @@
         <v>2500</v>
       </c>
       <c r="G10" s="11">
-        <f>F10*12</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <f>IF(G7&gt;50000,G10-50000*25%,0)</f>
         <v>17500</v>
       </c>
-      <c r="I10" s="16">
-        <f>G10-H10</f>
+      <c r="I10" s="15">
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-      <c r="J10" s="23">
-        <f t="shared" si="0"/>
+      <c r="J10" s="21">
+        <f t="shared" si="3"/>
         <v>2.6260504201680673E-2</v>
       </c>
     </row>
@@ -2144,19 +2216,19 @@
         <v>2100</v>
       </c>
       <c r="G11" s="11">
-        <f>F11*12</f>
+        <f t="shared" si="0"/>
         <v>25200</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f>IF(G11&gt;50000,(G11-50000)*25%,0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="16">
-        <f>G11-H11</f>
+      <c r="I11" s="15">
+        <f t="shared" si="2"/>
         <v>25200</v>
       </c>
-      <c r="J11" s="23">
-        <f t="shared" si="0"/>
+      <c r="J11" s="21">
+        <f t="shared" si="3"/>
         <v>2.2058823529411766E-2</v>
       </c>
     </row>
@@ -2177,19 +2249,19 @@
         <v>2200</v>
       </c>
       <c r="G12" s="11">
-        <f>F12*12</f>
+        <f t="shared" si="0"/>
         <v>26400</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <f>IF(G12&gt;50000,(G12-50000)*25%,0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="16">
-        <f>G12-H12</f>
+      <c r="I12" s="15">
+        <f t="shared" si="2"/>
         <v>26400</v>
       </c>
-      <c r="J12" s="23">
-        <f t="shared" si="0"/>
+      <c r="J12" s="21">
+        <f t="shared" si="3"/>
         <v>2.3109243697478993E-2</v>
       </c>
     </row>
@@ -2210,19 +2282,19 @@
         <v>5600</v>
       </c>
       <c r="G13" s="11">
-        <f>F13*12</f>
+        <f t="shared" si="0"/>
         <v>67200</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <f>IF(G13&gt;50000,(G13-50000)*25%,0)</f>
         <v>4300</v>
       </c>
-      <c r="I13" s="16">
-        <f>G13-H13</f>
+      <c r="I13" s="15">
+        <f t="shared" si="2"/>
         <v>62900</v>
       </c>
-      <c r="J13" s="23">
-        <f t="shared" si="0"/>
+      <c r="J13" s="21">
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2243,19 +2315,19 @@
         <v>4200</v>
       </c>
       <c r="G14" s="11">
-        <f>F14*12</f>
+        <f t="shared" si="0"/>
         <v>50400</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <f>IF(G11&gt;50000,G14-50000*25%,0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="16">
-        <f>G14-H14</f>
+      <c r="I14" s="15">
+        <f t="shared" si="2"/>
         <v>50400</v>
       </c>
-      <c r="J14" s="23">
-        <f t="shared" si="0"/>
+      <c r="J14" s="21">
+        <f t="shared" si="3"/>
         <v>4.4117647058823532E-2</v>
       </c>
     </row>
@@ -2276,19 +2348,19 @@
         <v>3200</v>
       </c>
       <c r="G15" s="11">
-        <f>F15*12</f>
+        <f t="shared" si="0"/>
         <v>38400</v>
       </c>
-      <c r="H15" s="16">
-        <f>IF(G15&gt;50000,(G15-50000)*25%,0)</f>
+      <c r="H15" s="15">
+        <f t="shared" ref="H15:H22" si="4">IF(G15&gt;50000,(G15-50000)*25%,0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="16">
-        <f>G15-H15</f>
+      <c r="I15" s="15">
+        <f t="shared" si="2"/>
         <v>38400</v>
       </c>
-      <c r="J15" s="23">
-        <f t="shared" si="0"/>
+      <c r="J15" s="21">
+        <f t="shared" si="3"/>
         <v>3.3613445378151259E-2</v>
       </c>
     </row>
@@ -2309,19 +2381,19 @@
         <v>3000</v>
       </c>
       <c r="G16" s="11">
-        <f>F16*12</f>
+        <f t="shared" si="0"/>
         <v>36000</v>
       </c>
-      <c r="H16" s="16">
-        <f>IF(G16&gt;50000,(G16-50000)*25%,0)</f>
+      <c r="H16" s="15">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I16" s="16">
-        <f>G16-H16</f>
+      <c r="I16" s="15">
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
-      <c r="J16" s="23">
-        <f t="shared" si="0"/>
+      <c r="J16" s="21">
+        <f t="shared" si="3"/>
         <v>3.1512605042016806E-2</v>
       </c>
     </row>
@@ -2342,19 +2414,19 @@
         <v>4000</v>
       </c>
       <c r="G17" s="11">
-        <f>F17*12</f>
+        <f t="shared" si="0"/>
         <v>48000</v>
       </c>
-      <c r="H17" s="16">
-        <f>IF(G17&gt;50000,(G17-50000)*25%,0)</f>
+      <c r="H17" s="15">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I17" s="16">
-        <f>G17-H17</f>
+      <c r="I17" s="15">
+        <f t="shared" si="2"/>
         <v>48000</v>
       </c>
-      <c r="J17" s="23">
-        <f t="shared" si="0"/>
+      <c r="J17" s="21">
+        <f t="shared" si="3"/>
         <v>4.2016806722689079E-2</v>
       </c>
     </row>
@@ -2375,19 +2447,19 @@
         <v>9200</v>
       </c>
       <c r="G18" s="11">
-        <f>F18*12</f>
+        <f t="shared" si="0"/>
         <v>110400</v>
       </c>
-      <c r="H18" s="16">
-        <f>IF(G18&gt;50000,(G18-50000)*25%,0)</f>
+      <c r="H18" s="15">
+        <f t="shared" si="4"/>
         <v>15100</v>
       </c>
-      <c r="I18" s="16">
-        <f>G18-H18</f>
+      <c r="I18" s="15">
+        <f t="shared" si="2"/>
         <v>95300</v>
       </c>
-      <c r="J18" s="23">
-        <f t="shared" si="0"/>
+      <c r="J18" s="21">
+        <f t="shared" si="3"/>
         <v>9.6638655462184878E-2</v>
       </c>
     </row>
@@ -2408,19 +2480,19 @@
         <v>7100</v>
       </c>
       <c r="G19" s="11">
-        <f>F19*12</f>
+        <f t="shared" si="0"/>
         <v>85200</v>
       </c>
-      <c r="H19" s="16">
-        <f>IF(G19&gt;50000,(G19-50000)*25%,0)</f>
+      <c r="H19" s="15">
+        <f t="shared" si="4"/>
         <v>8800</v>
       </c>
-      <c r="I19" s="16">
-        <f>G19-H19</f>
+      <c r="I19" s="15">
+        <f t="shared" si="2"/>
         <v>76400</v>
       </c>
-      <c r="J19" s="23">
-        <f t="shared" si="0"/>
+      <c r="J19" s="21">
+        <f t="shared" si="3"/>
         <v>7.4579831932773108E-2</v>
       </c>
     </row>
@@ -2441,19 +2513,19 @@
         <v>5200</v>
       </c>
       <c r="G20" s="11">
-        <f>F20*12</f>
+        <f t="shared" si="0"/>
         <v>62400</v>
       </c>
-      <c r="H20" s="16">
-        <f>IF(G20&gt;50000,(G20-50000)*25%,0)</f>
+      <c r="H20" s="15">
+        <f t="shared" si="4"/>
         <v>3100</v>
       </c>
-      <c r="I20" s="16">
-        <f>G20-H20</f>
+      <c r="I20" s="15">
+        <f t="shared" si="2"/>
         <v>59300</v>
       </c>
-      <c r="J20" s="23">
-        <f t="shared" si="0"/>
+      <c r="J20" s="21">
+        <f t="shared" si="3"/>
         <v>5.4621848739495799E-2</v>
       </c>
     </row>
@@ -2474,19 +2546,19 @@
         <v>5600</v>
       </c>
       <c r="G21" s="11">
-        <f>F21*12</f>
+        <f t="shared" si="0"/>
         <v>67200</v>
       </c>
-      <c r="H21" s="16">
-        <f>IF(G21&gt;50000,(G21-50000)*25%,0)</f>
+      <c r="H21" s="15">
+        <f t="shared" si="4"/>
         <v>4300</v>
       </c>
-      <c r="I21" s="16">
-        <f>G21-H21</f>
+      <c r="I21" s="15">
+        <f t="shared" si="2"/>
         <v>62900</v>
       </c>
-      <c r="J21" s="23">
-        <f t="shared" si="0"/>
+      <c r="J21" s="21">
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2507,24 +2579,24 @@
         <v>2500</v>
       </c>
       <c r="G22" s="11">
-        <f>F22*12</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="H22" s="16">
-        <f>IF(G22&gt;50000,(G22-50000)*25%,0)</f>
+      <c r="H22" s="15">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I22" s="16">
-        <f>G22-H22</f>
+      <c r="I22" s="15">
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="J22" s="23">
-        <f t="shared" si="0"/>
+      <c r="J22" s="21">
+        <f t="shared" si="3"/>
         <v>2.6260504201680673E-2</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="6"/>
@@ -2541,7 +2613,7 @@
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="6"/>
@@ -2558,7 +2630,7 @@
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="6"/>
@@ -2575,7 +2647,7 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="6"/>
@@ -2593,17 +2665,17 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="6">
@@ -2618,7 +2690,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="6">
@@ -2633,7 +2705,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="6">
@@ -2648,7 +2720,7 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="6">
@@ -2663,7 +2735,7 @@
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="6">
@@ -2678,7 +2750,7 @@
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="6">
@@ -2694,13 +2766,13 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 J3:J1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>MIN($J$4:$J$22)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>MAX($J$4:$J$22)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2716,7 +2788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
@@ -2792,7 +2864,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2926,103 +2999,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>